--- a/INTLINE/data/158/MOF/TRADE/COUN/Middle East.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/Middle East.xlsx
@@ -4580,7 +4580,7 @@
         <v>184590830</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>255984565</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>920382232</v>
       </c>
       <c r="SZ3" t="n">
-        <v>945259506</v>
+        <v>945475729</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>1032050367</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>609531</v>
       </c>
       <c r="TA4" t="n">
-        <v>0</v>
+        <v>550443</v>
       </c>
       <c r="TB4" t="n">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>447916</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>436221</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>4972844</v>
       </c>
       <c r="TA6" t="n">
-        <v>0</v>
+        <v>6648439</v>
       </c>
       <c r="TB6" t="n">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>3778314</v>
       </c>
       <c r="TA8" t="n">
-        <v>0</v>
+        <v>6817128</v>
       </c>
       <c r="TB8" t="n">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>6448461</v>
       </c>
       <c r="TA9" t="n">
-        <v>0</v>
+        <v>29427433</v>
       </c>
       <c r="TB9" t="n">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>47095833</v>
       </c>
       <c r="TA12" t="n">
-        <v>0</v>
+        <v>62512201</v>
       </c>
       <c r="TB12" t="n">
         <v>0</v>
@@ -22133,10 +22133,10 @@
         <v>355858984</v>
       </c>
       <c r="SZ13" t="n">
-        <v>341599954</v>
+        <v>341764375</v>
       </c>
       <c r="TA13" t="n">
-        <v>0</v>
+        <v>360326522</v>
       </c>
       <c r="TB13" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>9906387</v>
       </c>
       <c r="TA14" t="n">
-        <v>0</v>
+        <v>17122009</v>
       </c>
       <c r="TB14" t="n">
         <v>0</v>
@@ -25328,7 +25328,7 @@
         <v>99802738</v>
       </c>
       <c r="TA15" t="n">
-        <v>0</v>
+        <v>77916056</v>
       </c>
       <c r="TB15" t="n">
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>15494342</v>
       </c>
       <c r="TA16" t="n">
-        <v>0</v>
+        <v>17855964</v>
       </c>
       <c r="TB16" t="n">
         <v>0</v>
@@ -28517,10 +28517,10 @@
         <v>98570144</v>
       </c>
       <c r="SZ17" t="n">
-        <v>130633666</v>
+        <v>130637189</v>
       </c>
       <c r="TA17" t="n">
-        <v>0</v>
+        <v>148960805</v>
       </c>
       <c r="TB17" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>9444971</v>
       </c>
       <c r="TA18" t="n">
-        <v>0</v>
+        <v>14069238</v>
       </c>
       <c r="TB18" t="n">
         <v>0</v>
@@ -31712,7 +31712,7 @@
         <v>29785368</v>
       </c>
       <c r="TA19" t="n">
-        <v>0</v>
+        <v>55559273</v>
       </c>
       <c r="TB19" t="n">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>10580933</v>
       </c>
       <c r="TA22" t="n">
-        <v>0</v>
+        <v>21262847</v>
       </c>
       <c r="TB22" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>10860991</v>
       </c>
       <c r="TA23" t="n">
-        <v>0</v>
+        <v>11924131</v>
       </c>
       <c r="TB23" t="n">
         <v>0</v>
@@ -39692,7 +39692,7 @@
         <v>5628450</v>
       </c>
       <c r="TA24" t="n">
-        <v>0</v>
+        <v>6619235</v>
       </c>
       <c r="TB24" t="n">
         <v>0</v>
@@ -41288,7 +41288,7 @@
         <v>2289549</v>
       </c>
       <c r="TA25" t="n">
-        <v>0</v>
+        <v>1787799</v>
       </c>
       <c r="TB25" t="n">
         <v>0</v>
@@ -42884,7 +42884,7 @@
         <v>20713</v>
       </c>
       <c r="TA26" t="n">
-        <v>0</v>
+        <v>11035</v>
       </c>
       <c r="TB26" t="n">
         <v>0</v>
@@ -44480,7 +44480,7 @@
         <v>1558</v>
       </c>
       <c r="TA27" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="TB27" t="n">
         <v>0</v>
@@ -46076,7 +46076,7 @@
         <v>979461</v>
       </c>
       <c r="TA28" t="n">
-        <v>0</v>
+        <v>1915396</v>
       </c>
       <c r="TB28" t="n">
         <v>0</v>
@@ -47672,7 +47672,7 @@
         <v>17410</v>
       </c>
       <c r="TA29" t="n">
-        <v>0</v>
+        <v>33384</v>
       </c>
       <c r="TB29" t="n">
         <v>0</v>
@@ -49268,7 +49268,7 @@
         <v>73950992</v>
       </c>
       <c r="TA30" t="n">
-        <v>0</v>
+        <v>97294940</v>
       </c>
       <c r="TB30" t="n">
         <v>0</v>
@@ -50861,10 +50861,10 @@
         <v>349749584</v>
       </c>
       <c r="SZ31" t="n">
-        <v>323301829</v>
+        <v>323350108</v>
       </c>
       <c r="TA31" t="n">
-        <v>0</v>
+        <v>345633938</v>
       </c>
       <c r="TB31" t="n">
         <v>0</v>
@@ -55652,7 +55652,7 @@
         <v>2090740</v>
       </c>
       <c r="TA34" t="n">
-        <v>0</v>
+        <v>3212132</v>
       </c>
       <c r="TB34" t="n">
         <v>0</v>
@@ -57248,7 +57248,7 @@
         <v>63588</v>
       </c>
       <c r="TA35" t="n">
-        <v>0</v>
+        <v>23588</v>
       </c>
       <c r="TB35" t="n">
         <v>0</v>
@@ -58844,7 +58844,7 @@
         <v>37319</v>
       </c>
       <c r="TA36" t="n">
-        <v>0</v>
+        <v>93558</v>
       </c>
       <c r="TB36" t="n">
         <v>0</v>
@@ -60440,7 +60440,7 @@
         <v>1769</v>
       </c>
       <c r="TA37" t="n">
-        <v>0</v>
+        <v>20698</v>
       </c>
       <c r="TB37" t="n">
         <v>0</v>
